--- a/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>DSEY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>650100</v>
+      </c>
+      <c r="E8" s="3">
         <v>631500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>667400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>681100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>625800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>654900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>658500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>667600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>679900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>384500</v>
+      </c>
+      <c r="E9" s="3">
         <v>385100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>25100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21400</v>
       </c>
-      <c r="G9" s="3">
-        <v>21200</v>
-      </c>
       <c r="H9" s="3">
+        <v>386700</v>
+      </c>
+      <c r="I9" s="3">
         <v>395400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>265600</v>
+      </c>
+      <c r="E10" s="3">
         <v>246400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>642300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>659700</v>
       </c>
-      <c r="G10" s="3">
-        <v>604600</v>
-      </c>
       <c r="H10" s="3">
+        <v>239100</v>
+      </c>
+      <c r="I10" s="3">
         <v>259500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>635600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>646800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>658900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E14" s="3">
         <v>15900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
-        <v>1900</v>
-      </c>
       <c r="H14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I14" s="3">
         <v>6400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E15" s="3">
         <v>24300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>27100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>26500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>26600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>28200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,17 +964,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>627100</v>
+      </c>
+      <c r="E17" s="3">
         <v>687800</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
@@ -956,28 +983,31 @@
         <v>8</v>
       </c>
       <c r="H17" s="3">
+        <v>577500</v>
+      </c>
+      <c r="I17" s="3">
         <v>620600</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-56300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
@@ -985,19 +1015,22 @@
         <v>8</v>
       </c>
       <c r="H18" s="3">
+        <v>48300</v>
+      </c>
+      <c r="I18" s="3">
         <v>34300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,17 +1042,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1027,28 +1061,31 @@
         <v>8</v>
       </c>
       <c r="H20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I20" s="3">
         <v>12400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1067,46 +1104,52 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E22" s="3">
         <v>43700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>30800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-98100</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1114,48 +1157,54 @@
         <v>8</v>
       </c>
       <c r="H23" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I23" s="3">
         <v>15100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-48000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20100</v>
       </c>
-      <c r="G24" s="3">
-        <v>22000</v>
-      </c>
       <c r="H24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I24" s="3">
         <v>11200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>94500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,17 +1232,20 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-95700</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1201,28 +1253,31 @@
         <v>8</v>
       </c>
       <c r="H26" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-95700</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1230,19 +1285,22 @@
         <v>8</v>
       </c>
       <c r="H27" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,17 +1424,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1375,28 +1445,31 @@
         <v>8</v>
       </c>
       <c r="H32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-12400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-95700</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1404,19 +1477,22 @@
         <v>8</v>
       </c>
       <c r="H33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,17 +1520,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-95700</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1462,53 +1541,59 @@
         <v>8</v>
       </c>
       <c r="H35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,17 +1619,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E41" s="3">
         <v>113000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1681,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>475800</v>
+      </c>
+      <c r="E43" s="3">
         <v>427400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1620,17 +1713,20 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>331200</v>
+      </c>
+      <c r="E44" s="3">
         <v>317500</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1649,17 +1745,20 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E45" s="3">
         <v>45200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1678,17 +1777,20 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>921100</v>
+      </c>
+      <c r="E46" s="3">
         <v>903100</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,17 +1841,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>387900</v>
+      </c>
+      <c r="E48" s="3">
         <v>391400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1765,17 +1873,20 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2702100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2695300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,17 +1969,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E52" s="3">
         <v>147700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +2033,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4154100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4137500</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2095,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>426700</v>
+      </c>
+      <c r="E57" s="3">
         <v>444200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
@@ -1994,17 +2125,20 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E58" s="3">
         <v>14900</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2023,17 +2157,20 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>410500</v>
+      </c>
+      <c r="E59" s="3">
         <v>427000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2052,17 +2189,20 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>855300</v>
+      </c>
+      <c r="E60" s="3">
         <v>886100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2081,17 +2221,20 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1935500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1991300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2110,17 +2253,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>739100</v>
+      </c>
+      <c r="E62" s="3">
         <v>744500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,17 +2381,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3529900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3621900</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,17 +2555,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-642300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-641000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,17 +2683,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>624200</v>
+      </c>
+      <c r="E76" s="3">
         <v>515600</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,51 +2747,57 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-95700</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
@@ -2610,19 +2805,22 @@
         <v>8</v>
       </c>
       <c r="H81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,17 +2832,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E83" s="3">
         <v>47100</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,17 +3022,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-78700</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,17 +3070,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,17 +3164,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E94" s="3">
         <v>6000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3900</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3124,17 +3370,20 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3900</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3153,17 +3402,20 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-80500</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>DSEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>664900</v>
+      </c>
+      <c r="E8" s="3">
         <v>650100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>631500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>667400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>681100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>625800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>654900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>658500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>667600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>679900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>403900</v>
+      </c>
+      <c r="E9" s="3">
         <v>384500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>385100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>25100</v>
       </c>
-      <c r="G9" s="3">
-        <v>21400</v>
-      </c>
       <c r="H9" s="3">
+        <v>432300</v>
+      </c>
+      <c r="I9" s="3">
         <v>386700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>395400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E10" s="3">
         <v>265600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>246400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>642300</v>
       </c>
-      <c r="G10" s="3">
-        <v>659700</v>
-      </c>
       <c r="H10" s="3">
+        <v>248800</v>
+      </c>
+      <c r="I10" s="3">
         <v>239100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>259500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>635600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>646800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>658900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,72 +907,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E14" s="3">
         <v>12300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20400</v>
       </c>
-      <c r="G14" s="3">
-        <v>2900</v>
-      </c>
       <c r="H14" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I14" s="3">
         <v>5700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E15" s="3">
         <v>24100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>27100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>26500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>26600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>28200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>664200</v>
+      </c>
+      <c r="E17" s="3">
         <v>627100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>687800</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="3">
+        <v>640600</v>
+      </c>
+      <c r="I17" s="3">
         <v>577500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>620600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>23000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-56300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I18" s="3">
         <v>48300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>34300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,52 +1076,56 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E21" s="3">
         <v>63700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1107,104 +1144,116 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E22" s="3">
         <v>27900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>30800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>36000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-98100</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I23" s="3">
         <v>22000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-48000</v>
       </c>
-      <c r="G24" s="3">
-        <v>20100</v>
-      </c>
       <c r="H24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>94500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-95700</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I26" s="3">
         <v>16400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-95700</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I27" s="3">
         <v>16400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-95700</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I33" s="3">
         <v>16400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-95700</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I35" s="3">
         <v>16400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,20 +1706,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E41" s="3">
         <v>70700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>113000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,20 +1774,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>483500</v>
+      </c>
+      <c r="E43" s="3">
         <v>475800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>427400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1716,20 +1809,23 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>327500</v>
+      </c>
+      <c r="E44" s="3">
         <v>331200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>317500</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1748,20 +1844,23 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E45" s="3">
         <v>43400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1780,20 +1879,23 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>915600</v>
+      </c>
+      <c r="E46" s="3">
         <v>921100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>903100</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,20 +1949,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>390500</v>
+      </c>
+      <c r="E48" s="3">
         <v>387900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>391400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1876,20 +1984,23 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2653300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2702100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2695300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,20 +2089,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E52" s="3">
         <v>143000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>147700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,20 +2159,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4095700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4154100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4137500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,20 +2226,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>396800</v>
+      </c>
+      <c r="E57" s="3">
         <v>426700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>444200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2128,20 +2259,23 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E58" s="3">
         <v>18100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2160,20 +2294,23 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E59" s="3">
         <v>410500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>427000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2192,20 +2329,23 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>832700</v>
+      </c>
+      <c r="E60" s="3">
         <v>855300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>886100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2224,20 +2364,23 @@
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1966400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1935500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1991300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2256,20 +2399,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>727700</v>
+      </c>
+      <c r="E62" s="3">
         <v>739100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>744500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,20 +2539,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3526800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3529900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3621900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,20 +2729,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-684400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-642300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-641000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,20 +2869,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>568900</v>
+      </c>
+      <c r="E76" s="3">
         <v>624200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>515600</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-95700</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I81" s="3">
         <v>16400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,20 +3031,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E83" s="3">
         <v>46900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,20 +3239,23 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-78700</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,20 +3291,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,20 +3394,23 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,20 +3584,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3900</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3373,20 +3619,23 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3900</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3405,20 +3654,23 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-80500</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>DSEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,193 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>672400</v>
+      </c>
+      <c r="F8" s="3">
         <v>664900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>650100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>631500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>667400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>681100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>625800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>654900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>658500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>667600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>679900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>423900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>429900</v>
+      </c>
+      <c r="F9" s="3">
         <v>403900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>384500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>385100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>25100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>432300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>386700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>395400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>22900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>20800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>242500</v>
+      </c>
+      <c r="F10" s="3">
         <v>261000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>265600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>246400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>642300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>248800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>239100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>259500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>635600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>646800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>658900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +943,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F14" s="3">
         <v>42900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>12300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>15900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>20400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>14100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>6400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,31 +1002,37 @@
         <v>24100</v>
       </c>
       <c r="F15" s="3">
+        <v>24200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H15" s="3">
         <v>24300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>25900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>27100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>26500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>26600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>28200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>24200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1043,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>676100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>665200</v>
+      </c>
+      <c r="F17" s="3">
         <v>664200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>627100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>687800</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
         <v>640600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>577500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>620600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>23000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-56300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>40500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>48300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>34300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,61 +1142,69 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
         <v>11400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>12400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>57400</v>
+      </c>
+      <c r="F21" s="3">
         <v>50500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>63700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-7300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1147,113 +1220,137 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F22" s="3">
         <v>25800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>27900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>43700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>32900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>32400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>30800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>31600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>36000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>34000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-22900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-98100</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
         <v>19500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>22000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>15100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F24" s="3">
         <v>19200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-9800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-48000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>94500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-42100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-95700</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
         <v>12400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>16400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-42100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-95700</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
         <v>13000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>16400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1630,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
         <v>-11400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-12400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-42100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-95700</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
         <v>13000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>16400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-42100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-95700</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
         <v>13000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>16400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,26 +1878,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>216200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>207600</v>
+      </c>
+      <c r="F41" s="3">
         <v>68800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>70700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>113000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1742,8 +1915,14 @@
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,26 +1956,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>499300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>493800</v>
+      </c>
+      <c r="F43" s="3">
         <v>483500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>475800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>427400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1812,26 +1997,32 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>378200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>337600</v>
+      </c>
+      <c r="F44" s="3">
         <v>327500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>331200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>317500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1847,26 +2038,32 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F45" s="3">
         <v>35800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>43400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>45200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1882,26 +2079,32 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1153800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1088200</v>
+      </c>
+      <c r="F46" s="3">
         <v>915600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>921100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>903100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1917,31 +2120,37 @@
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>16300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1952,26 +2161,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>455800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>451600</v>
+      </c>
+      <c r="F48" s="3">
         <v>390500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>387900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>391400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1987,26 +2202,32 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2588600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2618800</v>
+      </c>
+      <c r="F49" s="3">
         <v>2653300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2702100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2695300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2022,8 +2243,14 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,26 +2325,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>141400</v>
+      </c>
+      <c r="F52" s="3">
         <v>136300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>143000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>147700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2127,8 +2366,14 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,26 +2407,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4350500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4095700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4154100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4137500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2197,8 +2448,14 @@
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,26 +2486,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>434300</v>
+      </c>
+      <c r="F57" s="3">
         <v>396800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>426700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>444200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2262,26 +2523,32 @@
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F58" s="3">
         <v>27900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>18100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>14900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2297,26 +2564,32 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>412200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>401200</v>
+      </c>
+      <c r="F59" s="3">
         <v>408000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>410500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>427000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2332,26 +2605,32 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>927100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>857100</v>
+      </c>
+      <c r="F60" s="3">
         <v>832700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>855300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>886100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2367,26 +2646,32 @@
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1970600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1973000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1966400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1935500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1991300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2402,26 +2687,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>677800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>684300</v>
+      </c>
+      <c r="F62" s="3">
         <v>727700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>739100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>744500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2437,8 +2728,14 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,26 +2851,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3575500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3514400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3526800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3529900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3621900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2577,8 +2892,14 @@
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,26 +3073,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-759200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-720100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-684400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-642300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-641000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2767,8 +3114,14 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,26 +3237,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>785600</v>
+      </c>
+      <c r="F76" s="3">
         <v>568900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>624200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>515600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2907,8 +3278,14 @@
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-42100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-95700</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3">
         <v>13000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>16400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,26 +3427,28 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45900</v>
+      </c>
+      <c r="F83" s="3">
         <v>47600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>46900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>47100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3067,8 +3464,14 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,26 +3669,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-21000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-78700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3277,8 +3710,14 @@
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,26 +3731,28 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-10600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3327,8 +3768,14 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,26 +3850,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-92100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-29900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-18400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>6000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3432,8 +3891,14 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,26 +4072,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>205600</v>
+      </c>
+      <c r="F100" s="3">
         <v>39300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3622,26 +4113,32 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3900</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3657,26 +4154,32 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>132100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-42200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-80500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3690,6 +4193,12 @@
         <v>8</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>DSEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>715300</v>
+      </c>
+      <c r="E8" s="3">
         <v>660000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>672400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>664900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>650100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>631500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>667400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>681100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>625800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>654900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>658500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>667600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>679900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>478300</v>
+      </c>
+      <c r="E9" s="3">
         <v>423900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>429900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>403900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>384500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>385100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>432300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>386700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>395400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E10" s="3">
         <v>236100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>242500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>261000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>265600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>246400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>642300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>248800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>239100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>259500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>635600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>646800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>658900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E14" s="3">
         <v>14300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>25400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>42900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E15" s="3">
         <v>24200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>27100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>26500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>26600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>28200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>738300</v>
+      </c>
+      <c r="E17" s="3">
         <v>676100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>665200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>664200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>627100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>687800</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>640600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>577500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>620600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-56300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>40500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,70 +1177,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E20" s="3">
         <v>9200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E21" s="3">
         <v>40500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>57400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>50500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>63700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1226,131 +1263,143 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E22" s="3">
         <v>30300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>43700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>36000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-98100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>19500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-9800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-48000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>94500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-39100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-42100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-95700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-35700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-42100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-95700</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>13000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-39100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-35700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-42100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-95700</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-39100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-35700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-42100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-95700</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>248200</v>
+      </c>
+      <c r="E41" s="3">
         <v>216200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>207600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>509700</v>
+      </c>
+      <c r="E43" s="3">
         <v>499300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>493800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>483500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>475800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>427400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2003,29 +2096,32 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>369700</v>
+      </c>
+      <c r="E44" s="3">
         <v>378200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>337600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>327500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>331200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>317500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2044,29 +2140,32 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E45" s="3">
         <v>60100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1204700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1153800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1088200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>915600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>921100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>903100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2126,17 +2228,20 @@
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E47" s="3">
         <v>16300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2152,8 +2257,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2167,29 +2272,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>467300</v>
+      </c>
+      <c r="E48" s="3">
         <v>455800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>451600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>390500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>387900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>391400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2208,29 +2316,32 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2489300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2588600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2618800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2653300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2702100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2695300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E52" s="3">
         <v>136000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>141400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>136300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>143000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>147700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4288400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4350500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4300000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4095700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4154100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4137500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>516300</v>
+      </c>
+      <c r="E57" s="3">
         <v>500500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>434300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>396800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>426700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>444200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2529,29 +2660,32 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E58" s="3">
         <v>14400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2570,29 +2704,32 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>399700</v>
+      </c>
+      <c r="E59" s="3">
         <v>412200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>401200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>408000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>410500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>427000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2611,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>933900</v>
+      </c>
+      <c r="E60" s="3">
         <v>927100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>857100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>832700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>855300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>886100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2652,29 +2792,32 @@
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1973600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1970600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1973000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1966400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1935500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1991300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>650600</v>
+      </c>
+      <c r="E62" s="3">
         <v>677800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>684300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>727700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>739100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>744500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3558100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3575500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3514400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3526800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3529900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3621900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-793400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-759200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-720100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-684400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-642300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-641000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>730300</v>
+      </c>
+      <c r="E76" s="3">
         <v>775000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>785600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>568900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>624200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>515600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-39100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-35700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-42100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-95700</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,29 +3627,30 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E83" s="3">
         <v>47400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>47600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>46900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,29 +3889,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E89" s="3">
         <v>45900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-78700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,29 +3953,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,29 +4083,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-68700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-92100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,29 +4321,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E100" s="3">
         <v>33800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>205600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>39300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4119,29 +4365,32 @@
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3900</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4160,29 +4409,32 @@
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E102" s="3">
         <v>8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>132100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-42200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-80500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>DSEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E8" s="3">
         <v>715300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>660000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>672400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>664900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>650100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>631500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>667400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>681100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>625800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>654900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>658500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>667600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>679900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>447300</v>
+      </c>
+      <c r="E9" s="3">
         <v>478300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>423900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>429900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>403900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>384500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>385100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>432300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>386700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>395400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>241700</v>
+      </c>
+      <c r="E10" s="3">
         <v>237000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>236100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>242500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>261000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>265600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>246400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>642300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>248800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>239100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>259500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>635600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>646800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>658900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E14" s="3">
         <v>27500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>42900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E15" s="3">
         <v>22800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>24300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>26500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>26600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>28200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>712000</v>
+      </c>
+      <c r="E17" s="3">
         <v>738300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>676100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>665200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>664200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>627100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>687800</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>640600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>577500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>620600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>-23000</v>
       </c>
       <c r="E18" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-56300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>40500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>48300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>34300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,76 +1211,80 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E20" s="3">
         <v>16300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>11400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E21" s="3">
         <v>39800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>40500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>57400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>50500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>63700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1266,140 +1303,152 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E22" s="3">
         <v>27000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>30300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>27900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>31600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>36000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-98100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-48000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>94500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-39100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-42100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-95700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-39100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-42100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-95700</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>13000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>-11400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-39100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-42100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-95700</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>13000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-39100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-42100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-95700</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>13000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2053,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>249100</v>
+      </c>
+      <c r="E41" s="3">
         <v>248200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>216200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>207600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,32 +2145,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>512600</v>
+      </c>
+      <c r="E43" s="3">
         <v>509700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>499300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>493800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>483500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>475800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>427400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2099,32 +2192,35 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>368700</v>
+      </c>
+      <c r="E44" s="3">
         <v>369700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>378200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>337600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>327500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>331200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>317500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2143,32 +2239,35 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E45" s="3">
         <v>77100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>60100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,32 +2286,35 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1224100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1204700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1153800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1088200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>915600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>921100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>903100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2231,20 +2333,23 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E47" s="3">
         <v>14700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2260,8 +2365,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2275,32 +2380,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>453900</v>
+      </c>
+      <c r="E48" s="3">
         <v>467300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>455800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>451600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>390500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>387900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>391400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,32 +2427,35 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2311100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2489300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2588600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2618800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2653300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2702100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2695300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,32 +2568,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E52" s="3">
         <v>112400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>136000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>141400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>136300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>143000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>147700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2662,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4143000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4288400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4350500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4300000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4095700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4154100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4137500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2749,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>479200</v>
+      </c>
+      <c r="E57" s="3">
         <v>516300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>434300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>396800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>426700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>444200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,32 +2794,35 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E58" s="3">
         <v>17900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2707,32 +2841,35 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>407900</v>
+      </c>
+      <c r="E59" s="3">
         <v>399700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>412200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>401200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>408000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>410500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>427000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,32 +2888,35 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>905200</v>
+      </c>
+      <c r="E60" s="3">
         <v>933900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>927100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>857100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>832700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>855300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>886100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2795,32 +2935,35 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1969900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1973600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1970600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1973000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1966400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1935500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1991300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,32 +2982,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>601800</v>
+      </c>
+      <c r="E62" s="3">
         <v>650600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>677800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>684300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>727700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>739100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>744500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3170,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3476900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3558100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3575500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3514400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3526800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3529900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3621900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3424,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-829900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-793400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-759200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-720100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-684400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-642300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-641000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3612,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>666100</v>
+      </c>
+      <c r="E76" s="3">
         <v>730300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>775000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>785600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>568900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>624200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>515600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-39100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-42100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-95700</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>13000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,32 +3826,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E83" s="3">
         <v>46500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>46900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,32 +4106,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E89" s="3">
         <v>19000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-78700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,32 +4174,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,32 +4313,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-68700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-92100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4567,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E100" s="3">
         <v>66100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>33800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>205600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>39300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4368,32 +4614,35 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3900</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4412,32 +4661,35 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>32000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>132100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-42200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-80500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>DSEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>701600</v>
+      </c>
+      <c r="F8" s="3">
         <v>689000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>715300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>660000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>672400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>664900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>650100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>631500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>667400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>681100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>625800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>654900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>658500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>667600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>679900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>458300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>540600</v>
+      </c>
+      <c r="F9" s="3">
         <v>447300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>478300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>423900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>429900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>403900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>384500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>385100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>25100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>432300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>386700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>395400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>22900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>20800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>161000</v>
+      </c>
+      <c r="F10" s="3">
         <v>241700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>237000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>236100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>242500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>261000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>265600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>246400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>642300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>248800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>239100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>259500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>635600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>646800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>658900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,69 +1022,81 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F14" s="3">
         <v>51900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>27500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>14300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>25400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>42900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>12300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>15900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>20400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>14100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>6400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>10400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F15" s="3">
         <v>21500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>22800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>24200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>24100</v>
       </c>
       <c r="H15" s="3">
         <v>24200</v>
@@ -1060,31 +1105,37 @@
         <v>24100</v>
       </c>
       <c r="J15" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>24100</v>
+      </c>
+      <c r="L15" s="3">
         <v>24300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>25900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>27100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>26500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>26600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>28200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>24200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>725900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>751500</v>
+      </c>
+      <c r="F17" s="3">
         <v>712000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>738300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>676100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>665200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>664200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>627100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>687800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>640600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>577500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>620600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-23000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-16100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>23000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-56300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>40500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>48300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>34300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,85 +1277,93 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>13300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>16300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>9200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>11400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>12400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F21" s="3">
         <v>34600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>39800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>40500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>57400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>50500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>63700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1306,149 +1379,173 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F22" s="3">
         <v>25700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>27000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>30300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>28900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>25800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>27900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>43700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>32900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>32400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>30800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>31600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>36000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>34000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-35400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-33700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-37200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-17400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-22900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-98100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>19500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>22000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>15100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>18300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>19200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-9800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-48000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>11200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>94500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-36500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-34200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-39100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-35700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-42100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-95700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>16400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-36500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-34200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-39100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-35700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-42100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-95700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>13000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>16400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-13300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-16300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-9200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>-11400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-12400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-36500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-34200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-39100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-35700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-42100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-95700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>13000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>16400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-36500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-34200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-39100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-35700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-42100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-95700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>13000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>16400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2225,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>205600</v>
+      </c>
+      <c r="F41" s="3">
         <v>249100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>248200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>216200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>207600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>68800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>70700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>113000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,8 +2274,14 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,38 +2327,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>532600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>557600</v>
+      </c>
+      <c r="F43" s="3">
         <v>512600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>509700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>499300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>493800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>483500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>475800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>427400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2195,38 +2380,44 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>405500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>354600</v>
+      </c>
+      <c r="F44" s="3">
         <v>368700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>369700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>378200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>337600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>327500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>331200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>317500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2242,38 +2433,44 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>87500</v>
+      </c>
+      <c r="F45" s="3">
         <v>93700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>77100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>60100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>49200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>35800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>43400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>45200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,38 +2486,44 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1157800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1205300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1224100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1204700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1153800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1088200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>915600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>921100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>903100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2336,26 +2539,32 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F47" s="3">
         <v>13200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>14700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>16300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2368,11 +2577,11 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2383,38 +2592,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>503400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>497600</v>
+      </c>
+      <c r="F48" s="3">
         <v>453900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>467300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>455800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>451600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>390500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>387900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>391400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,38 +2645,44 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2453000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2446900</v>
+      </c>
+      <c r="F49" s="3">
         <v>2311100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2489300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2588600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2618800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2653300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2702100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2695300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2804,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>92100</v>
+      </c>
+      <c r="F52" s="3">
         <v>140700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>112400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>136000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>141400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>136300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>143000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>147700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2910,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4210300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4254700</v>
+      </c>
+      <c r="F54" s="3">
         <v>4143000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4288400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4350500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4300000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4095700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4154100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4137500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2712,8 +2963,14 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +3009,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>547100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>552600</v>
+      </c>
+      <c r="F57" s="3">
         <v>479200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>516300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>434300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>396800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>426700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>444200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,38 +3058,44 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F58" s="3">
         <v>18100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>17900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>14400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>21600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>27900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>18100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>14900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2844,38 +3111,44 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>438300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>427200</v>
+      </c>
+      <c r="F59" s="3">
         <v>407900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>399700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>412200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>401200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>408000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>410500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>427000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2891,38 +3164,44 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>998500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>996000</v>
+      </c>
+      <c r="F60" s="3">
         <v>905200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>933900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>927100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>857100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>832700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>855300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>886100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2938,38 +3217,44 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1965800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1969000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1969900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1973600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1970600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1973000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1966400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1935500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1991300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,38 +3270,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>617200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>616700</v>
+      </c>
+      <c r="F62" s="3">
         <v>601800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>650600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>677800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>684300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>727700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>739100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>744500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3482,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3581500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3581700</v>
+      </c>
+      <c r="F66" s="3">
         <v>3476900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3558100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3575500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3514400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3526800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3529900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3621900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3220,8 +3535,14 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3768,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-943000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-889400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-829900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-793400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-759200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-720100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-684400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-642300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-641000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3821,14 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3980,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>628800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>673000</v>
+      </c>
+      <c r="F76" s="3">
         <v>666100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>730300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>775000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>785600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>568900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>624200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>515600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3662,8 +4033,14 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-36500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-34200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-39100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-35700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-42100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-95700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>13000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>16400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,38 +4222,40 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F83" s="3">
         <v>44300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>46500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>47400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>45900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>47600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>46900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>47100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,38 +4536,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-30500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>19000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>45900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>22200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-21000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-78700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4156,8 +4589,14 @@
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,38 +4614,40 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-24500</v>
       </c>
       <c r="E91" s="3">
-        <v>-25400</v>
+        <v>-43000</v>
       </c>
       <c r="F91" s="3">
-        <v>-10000</v>
+        <v>-19900</v>
       </c>
       <c r="G91" s="3">
-        <v>-32400</v>
+        <v>-46700</v>
       </c>
       <c r="H91" s="3">
-        <v>-10600</v>
+        <v>-27300</v>
       </c>
       <c r="I91" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,38 +4769,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-19900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-46700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-68700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-92100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-29900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-18400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>6000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,38 +5055,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F100" s="3">
         <v>70200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>66100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>33800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>205600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>39300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-3900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4617,38 +5108,44 @@
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-18900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-6400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4664,38 +5161,44 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>32000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>132100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-42200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-80500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4709,6 +5212,12 @@
         <v>8</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
